--- a/08_Protect_Mode/04 GDT 段描述符和段选择子.xlsx
+++ b/08_Protect_Mode/04 GDT 段描述符和段选择子.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\08_Protect_Mode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD63BD8E-1D61-4F54-9D49-38E6C91EC480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E2008E-4A23-4646-AD91-0D709102FF48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="51">
   <si>
     <r>
       <t>查找</t>
@@ -873,6 +873,22 @@
   </si>
   <si>
     <t>段选择子:  011 0 11B=0x001b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int var = 0;</t>
+  </si>
+  <si>
+    <t>void main()</t>
+  </si>
+  <si>
+    <t>char buffer[6]={0x44,0x33,0x22,0x11,0x1b,0x00};</t>
+  </si>
+  <si>
+    <t>nop</t>
+  </si>
+  <si>
+    <t>0x00cf9b00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1169,7 +1185,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
@@ -1205,17 +1221,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -1820,23 +1831,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>22861</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>121921</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>30445</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>68581</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>550235</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="图片 11">
+        <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41D17A52-9B18-AD27-2232-FCCD787D19FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B496E4A9-B3CC-79E5-BC39-4FC0B6FA1794}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1852,42 +1863,12 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="632461" y="8427721"/>
-          <a:ext cx="5493984" cy="1874520"/>
+          <a:off x="6705600" y="8130541"/>
+          <a:ext cx="5427035" cy="1905000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF">
-            <a:shade val="85000"/>
-          </a:srgbClr>
-        </a:solidFill>
-        <a:ln w="88900" cap="sq">
-          <a:solidFill>
-            <a:srgbClr val="FFFFFF"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="55000" dist="18000" dir="5400000" algn="tl" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="40000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-        <a:scene3d>
-          <a:camera prst="orthographicFront"/>
-          <a:lightRig rig="twoPt" dir="t">
-            <a:rot lat="0" lon="0" rev="7200000"/>
-          </a:lightRig>
-        </a:scene3d>
-        <a:sp3d>
-          <a:bevelT w="25400" h="19050"/>
-          <a:contourClr>
-            <a:srgbClr val="FFFFFF"/>
-          </a:contourClr>
-        </a:sp3d>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2190,42 +2171,21 @@
         <v>2</v>
       </c>
       <c r="L4" s="20"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="22"/>
+      <c r="T4" s="21"/>
     </row>
     <row r="5" spans="2:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L5" s="23" t="s">
+      <c r="L5" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="22"/>
+      <c r="T5" s="21"/>
     </row>
     <row r="6" spans="2:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C6" s="1"/>
       <c r="L6" s="20"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="22"/>
+      <c r="T6" s="21"/>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C7" s="6" t="s">
@@ -2235,57 +2195,51 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="L7" s="31" t="s">
+      <c r="L7" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="M7" s="32"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="22"/>
+      <c r="M7" s="29"/>
+      <c r="T7" s="21"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="L8" s="24"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="25"/>
-      <c r="S8" s="25"/>
-      <c r="T8" s="22"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="21"/>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="24" t="s">
+      <c r="L9" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="25"/>
-      <c r="T9" s="22"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="21"/>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="L10" s="24" t="s">
+      <c r="L10" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="25"/>
-      <c r="S10" s="25"/>
-      <c r="T10" s="22"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="21"/>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C11" s="3" t="s">
@@ -2294,17 +2248,17 @@
       <c r="D11" t="s">
         <v>5</v>
       </c>
-      <c r="L11" s="24" t="s">
+      <c r="L11" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="25"/>
-      <c r="S11" s="25"/>
-      <c r="T11" s="22"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="21"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C12" s="3" t="s">
@@ -2313,30 +2267,30 @@
       <c r="D12" t="s">
         <v>7</v>
       </c>
-      <c r="L12" s="26"/>
-      <c r="M12" s="27" t="s">
+      <c r="L12" s="24"/>
+      <c r="M12" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="25"/>
-      <c r="S12" s="25"/>
-      <c r="T12" s="22"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="21"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="L13" s="24" t="s">
+      <c r="L13" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="25"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="22"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="21"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C14" s="3" t="s">
@@ -2345,15 +2299,15 @@
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="28"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="29"/>
-      <c r="T14" s="30"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="27"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C15" s="3" t="s">
@@ -2588,95 +2542,95 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B78A0BD-28A4-4A12-AA16-4C038C58F709}">
-  <dimension ref="B2:N45"/>
+  <dimension ref="B2:N59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="35"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="36"/>
-      <c r="C7" s="35" t="s">
+      <c r="B7" s="33"/>
+      <c r="C7" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
@@ -2684,33 +2638,203 @@
       </c>
     </row>
     <row r="13" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="L13" s="37" t="s">
+      <c r="L13" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="M13" s="38"/>
-      <c r="N13" s="38"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
     </row>
     <row r="14" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="L14" s="37" t="s">
+      <c r="L14" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38"/>
-    </row>
-    <row r="41" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+    </row>
+    <row r="30" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L30" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B41" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C43" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C45" s="3" t="s">
         <v>44</v>
       </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B47" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="15"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B48" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B49" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="15"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B50" s="15"/>
+      <c r="C50" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="15"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B51" s="15"/>
+      <c r="C51" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="15"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B52" s="15"/>
+      <c r="C52" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="15"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B53" s="15"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="15"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B54" s="15"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="15"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B55" s="15"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="15"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B56" s="15"/>
+      <c r="C56" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="15"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B57" s="15"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="15"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B58" s="15"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="15"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B59" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/08_Protect_Mode/04 GDT 段描述符和段选择子.xlsx
+++ b/08_Protect_Mode/04 GDT 段描述符和段选择子.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\08_Protect_Mode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E2008E-4A23-4646-AD91-0D709102FF48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D909B27A-D722-4671-BDF4-2207B6E06128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -263,10 +263,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GDT存储段描述符，每个大小为8B，其结构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0: kd&gt; dq 8003f000</t>
   </si>
   <si>
@@ -889,6 +885,10 @@
   </si>
   <si>
     <t>0x00cf9b00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GDT存储段描述符，每个大小为8B，其结构(第一个为8字节0)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2141,8 +2141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:T30"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2155,7 +2155,7 @@
         <v>1</v>
       </c>
       <c r="L3" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M3" s="17"/>
       <c r="N3" s="17"/>
@@ -2178,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T5" s="21"/>
     </row>
@@ -2189,14 +2189,14 @@
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C7" s="6" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="L7" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M7" s="29"/>
       <c r="T7" s="21"/>
@@ -2217,7 +2217,7 @@
         <v>3</v>
       </c>
       <c r="L9" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M9" s="15"/>
       <c r="N9" s="15"/>
@@ -2230,7 +2230,7 @@
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
       <c r="L10" s="23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M10" s="15"/>
       <c r="N10" s="15"/>
@@ -2249,7 +2249,7 @@
         <v>5</v>
       </c>
       <c r="L11" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M11" s="15"/>
       <c r="N11" s="15"/>
@@ -2269,7 +2269,7 @@
       </c>
       <c r="L12" s="24"/>
       <c r="M12" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
@@ -2281,7 +2281,7 @@
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="L13" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M13" s="15"/>
       <c r="N13" s="15"/>
@@ -2311,55 +2311,55 @@
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="2:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="K20" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="K22" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="2:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="K23" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="2:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="K24" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="K26" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="2:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="K27" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="2:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="K28" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="2:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="K29" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="2:11" ht="14.4" x14ac:dyDescent="0.25">
@@ -2382,35 +2382,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C84E3C-B780-4E8D-AE70-519F77845933}">
   <dimension ref="Q4:Q8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="17:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="17:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q5" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="17:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="17:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q7" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="17:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q8" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -2432,32 +2430,32 @@
   <sheetData>
     <row r="2" spans="2:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B2" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C4" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C5" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C8" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C13" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
@@ -2472,7 +2470,7 @@
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C15" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
@@ -2484,7 +2482,7 @@
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C16" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
@@ -2496,7 +2494,7 @@
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C17" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
@@ -2509,7 +2507,7 @@
     <row r="18" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C18" s="15"/>
       <c r="D18" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E18" s="15"/>
       <c r="F18" s="15"/>
@@ -2520,7 +2518,7 @@
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C19" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
@@ -2544,7 +2542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B78A0BD-28A4-4A12-AA16-4C038C58F709}">
   <dimension ref="B2:N59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
@@ -2552,7 +2550,7 @@
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" s="30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
@@ -2574,7 +2572,7 @@
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="32"/>
       <c r="D4" s="33"/>
@@ -2586,7 +2584,7 @@
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" s="33"/>
       <c r="D5" s="33"/>
@@ -2598,7 +2596,7 @@
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="33"/>
       <c r="D6" s="33"/>
@@ -2611,7 +2609,7 @@
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="33"/>
       <c r="C7" s="32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7" s="32"/>
       <c r="E7" s="32"/>
@@ -2622,7 +2620,7 @@
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" s="33"/>
       <c r="D8" s="33"/>
@@ -2634,46 +2632,46 @@
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="L13" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M13" s="35"/>
       <c r="N13" s="35"/>
     </row>
     <row r="14" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="L14" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M14" s="35"/>
       <c r="N14" s="35"/>
     </row>
     <row r="30" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L30" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B41" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C43" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C45" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B47" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
@@ -2686,7 +2684,7 @@
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B48" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C48" s="15"/>
       <c r="D48" s="15"/>
@@ -2699,7 +2697,7 @@
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B49" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C49" s="15"/>
       <c r="D49" s="15"/>
@@ -2713,7 +2711,7 @@
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B50" s="15"/>
       <c r="C50" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D50" s="15"/>
       <c r="E50" s="15"/>
@@ -2726,7 +2724,7 @@
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B51" s="15"/>
       <c r="C51" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D51" s="15"/>
       <c r="E51" s="15"/>
@@ -2739,7 +2737,7 @@
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B52" s="15"/>
       <c r="C52" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D52" s="15"/>
       <c r="E52" s="15"/>
@@ -2753,7 +2751,7 @@
       <c r="B53" s="15"/>
       <c r="C53" s="15"/>
       <c r="D53" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E53" s="15"/>
       <c r="F53" s="15"/>
@@ -2766,7 +2764,7 @@
       <c r="B54" s="15"/>
       <c r="C54" s="15"/>
       <c r="D54" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E54" s="15"/>
       <c r="F54" s="15"/>
@@ -2779,7 +2777,7 @@
       <c r="B55" s="15"/>
       <c r="C55" s="15"/>
       <c r="D55" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E55" s="15"/>
       <c r="F55" s="15"/>
@@ -2791,7 +2789,7 @@
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B56" s="15"/>
       <c r="C56" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D56" s="15"/>
       <c r="E56" s="15"/>
@@ -2825,7 +2823,7 @@
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B59" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C59" s="15"/>
       <c r="D59" s="15"/>
